--- a/Portfolio website/website/PARADE_STATE.xlsx
+++ b/Portfolio website/website/PARADE_STATE.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/983a11a70238d6cd/Desktop/9AMB Website/website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/983a11a70238d6cd/Desktop/Portfolio website/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{0B61AE92-5B3A-4CA2-8D34-C2569CAD86AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B20675CC-3778-4AA1-9CFC-98495E3B6437}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F3C7F08023D27B60E38E42C824A5464A22375288" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C8993B-6CB4-4A8B-9143-D95AC55ED1AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARADE STATE S1" sheetId="1" r:id="rId1"/>
     <sheet name="SUMMARY S1" sheetId="2" r:id="rId2"/>
-    <sheet name="PARADE STATE S2" sheetId="11" r:id="rId3"/>
-    <sheet name="SUMMARY S2" sheetId="12" r:id="rId4"/>
-    <sheet name="PARADE STATE S3" sheetId="3" r:id="rId5"/>
-    <sheet name="SUMMARY S3" sheetId="4" r:id="rId6"/>
-    <sheet name="PARADE STATE S4" sheetId="5" r:id="rId7"/>
-    <sheet name="SUMMARY S4" sheetId="6" r:id="rId8"/>
-    <sheet name="PARADE STATE S5" sheetId="13" r:id="rId9"/>
-    <sheet name="SUMMARY S5" sheetId="14" r:id="rId10"/>
+    <sheet name="PARADE STATE S2" sheetId="3" r:id="rId3"/>
+    <sheet name="SUMMARY S2" sheetId="4" r:id="rId4"/>
+    <sheet name="PARADE STATE S3" sheetId="5" r:id="rId5"/>
+    <sheet name="SUMMARY S3" sheetId="6" r:id="rId6"/>
+    <sheet name="PARADE STATE S4" sheetId="7" r:id="rId7"/>
+    <sheet name="SUMMARY S4" sheetId="8" r:id="rId8"/>
+    <sheet name="PARADE STATE S5" sheetId="9" r:id="rId9"/>
+    <sheet name="SUMMARY S5" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="128">
   <si>
     <t>DATE:</t>
   </si>
@@ -65,25 +65,223 @@
     <t>ME6</t>
   </si>
   <si>
+    <t>ALFA</t>
+  </si>
+  <si>
+    <t>ALPHA</t>
+  </si>
+  <si>
+    <t>LTA</t>
+  </si>
+  <si>
+    <t>FOXTROT</t>
+  </si>
+  <si>
+    <t>ME1</t>
+  </si>
+  <si>
+    <t>KILO</t>
+  </si>
+  <si>
+    <t>ME2</t>
+  </si>
+  <si>
+    <t>QUEBEC</t>
+  </si>
+  <si>
+    <t>ME3</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>CFC</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>- PRESENT</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>- REPORT SICK IN CAMP</t>
+  </si>
+  <si>
+    <t>RSO</t>
+  </si>
+  <si>
+    <t>- REPORT SICK OUTSIDE CAMP</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>- LOCAL LEAVE</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>- OVERSEAS LEAVE</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>- URGENT LEAVE</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>- OFF</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>- DUTY IN CAMP</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>- MEDICAL APPOINTMENT</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>- MEDICAL LEAVE</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>- COURSE</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>- CHILD SICK LEAVE</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>- CHILD CARE LEAVE</t>
+  </si>
+  <si>
+    <t>ATT</t>
+  </si>
+  <si>
+    <t>- ATTACHED OUT</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>- COMPASSIONATE LEAVE</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>- DUTY OFF</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>- DENTAL APPOINTMENT</t>
+  </si>
+  <si>
+    <t>IMT</t>
+  </si>
+  <si>
+    <t>- INDIVIDUAL MARKSMANSHIP TRAINER</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>- HOSPITALISATION</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>- HOSPITALISATION LEAVE</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>- WORKING OVERTIME</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>- BIRTHDAY OFF</t>
+  </si>
+  <si>
+    <t>Bn O</t>
+  </si>
+  <si>
+    <t>- BATTALION OFF</t>
+  </si>
+  <si>
+    <t>PCL</t>
+  </si>
+  <si>
+    <t>- PARENT CARE LEAVE</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Paternity Leave</t>
+  </si>
+  <si>
+    <t>PARADE STATE OF S1 Branch / 9 AMB</t>
+  </si>
+  <si>
+    <t>ME5</t>
+  </si>
+  <si>
     <t>ME4</t>
   </si>
   <si>
-    <t>MC</t>
+    <t>ME1T</t>
+  </si>
+  <si>
+    <t>ME4A</t>
   </si>
   <si>
     <t>CPT</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>OL</t>
+    <t>2LT</t>
   </si>
   <si>
     <t>DXO</t>
   </si>
   <si>
-    <t>H</t>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>3SG</t>
+  </si>
+  <si>
+    <t>CPL</t>
   </si>
   <si>
     <t>LCP</t>
@@ -92,189 +290,9 @@
     <t>PTE</t>
   </si>
   <si>
-    <t>RSI</t>
-  </si>
-  <si>
-    <t>RSO</t>
-  </si>
-  <si>
     <t>REC</t>
   </si>
   <si>
-    <t>LEGEND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P </t>
-  </si>
-  <si>
-    <t>- PRESENT</t>
-  </si>
-  <si>
-    <t>- REPORT SICK IN CAMP</t>
-  </si>
-  <si>
-    <t>- REPORT SICK OUTSIDE CAMP</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>- LOCAL LEAVE</t>
-  </si>
-  <si>
-    <t>- OVERSEAS LEAVE</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>- URGENT LEAVE</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>- OFF</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>- DUTY IN CAMP</t>
-  </si>
-  <si>
-    <t>- MEDICAL APPOINTMENT</t>
-  </si>
-  <si>
-    <t>- MEDICAL LEAVE</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>- COURSE</t>
-  </si>
-  <si>
-    <t>CSL</t>
-  </si>
-  <si>
-    <t>- CHILD SICK LEAVE</t>
-  </si>
-  <si>
-    <t>CCL</t>
-  </si>
-  <si>
-    <t>- CHILD CARE LEAVE</t>
-  </si>
-  <si>
-    <t>ATT</t>
-  </si>
-  <si>
-    <t>- ATTACHED OUT</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>- COMPASSIONATE LEAVE</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>- DUTY OFF</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>- DENTAL APPOINTMENT</t>
-  </si>
-  <si>
-    <t>IMT</t>
-  </si>
-  <si>
-    <t>- INDIVIDUAL MARKSMANSHIP TRAINER</t>
-  </si>
-  <si>
-    <t>- HOSPITALISATION</t>
-  </si>
-  <si>
-    <t>HL</t>
-  </si>
-  <si>
-    <t>- HOSPITALISATION LEAVE</t>
-  </si>
-  <si>
-    <t>OT</t>
-  </si>
-  <si>
-    <t>- WORKING OVERTIME</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>- BIRTHDAY OFF</t>
-  </si>
-  <si>
-    <t>Bn O</t>
-  </si>
-  <si>
-    <t>- BATTALION OFF</t>
-  </si>
-  <si>
-    <t>PCL</t>
-  </si>
-  <si>
-    <t>- PARENT CARE LEAVE</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>Paternity Leave</t>
-  </si>
-  <si>
-    <t>PARADE STATE OF S1 Branch / 9 AMB</t>
-  </si>
-  <si>
-    <t>ME5</t>
-  </si>
-  <si>
-    <t>ME3</t>
-  </si>
-  <si>
-    <t>ME2</t>
-  </si>
-  <si>
-    <t>ME1</t>
-  </si>
-  <si>
-    <t>ME1T</t>
-  </si>
-  <si>
-    <t>ME4A</t>
-  </si>
-  <si>
-    <t>LTA</t>
-  </si>
-  <si>
-    <t>2LT</t>
-  </si>
-  <si>
-    <t>SCT</t>
-  </si>
-  <si>
-    <t>3SG</t>
-  </si>
-  <si>
-    <t>CFC</t>
-  </si>
-  <si>
-    <t>CPL</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -335,13 +353,76 @@
     <t>TOTAL STRENGTH IN DEPOT</t>
   </si>
   <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>ROMEO</t>
+  </si>
+  <si>
+    <t>WHISKEY</t>
+  </si>
+  <si>
+    <t>PARADE STATE OF 92 FMD KRANJI / 9 AMB</t>
+  </si>
+  <si>
+    <t>CHARLIE</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>MIKE</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>XRAY</t>
+  </si>
+  <si>
     <t>PARADE STATE OF S3 Branch / 9 AMB</t>
   </si>
   <si>
+    <t>DELTA</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>TANGO</t>
+  </si>
+  <si>
+    <t>YANKEE</t>
+  </si>
+  <si>
     <t>PARADE STATE OF S4 Branch / 9 AMB</t>
   </si>
   <si>
-    <t>PARADE STATE OF 92 FMD KRANJI / 9 AMB</t>
+    <t>ECHO</t>
+  </si>
+  <si>
+    <t>JULIETT</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>UNIFORM</t>
+  </si>
+  <si>
+    <t>ZULU</t>
   </si>
   <si>
     <t>PARADE STATE OF 92 FMD CLEMENTI / 9 AMB</t>
@@ -452,7 +533,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,8 +582,14 @@
         <bgColor indexed="34"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -684,12 +771,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,6 +1029,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,12 +1360,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView zoomScale="38" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="38" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="M36" sqref="M36"/>
-      <selection pane="topRight" activeCell="D4" sqref="A4:XFD27"/>
+      <selection pane="topRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,8 +1382,8 @@
     <col min="39" max="39" width="10.453125" style="48" customWidth="1"/>
     <col min="40" max="40" width="9.1796875" style="48" customWidth="1"/>
     <col min="41" max="41" width="27.26953125" style="48" customWidth="1"/>
-    <col min="42" max="110" width="9.1796875" style="48" customWidth="1"/>
-    <col min="111" max="16384" width="9.1796875" style="48"/>
+    <col min="42" max="111" width="9.1796875" style="48" customWidth="1"/>
+    <col min="112" max="16384" width="9.1796875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
@@ -1380,268 +1505,774 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="78">
+        <f>ROW()/2-1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" s="78">
+        <f>ROW()/2-1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="78">
+        <f>ROW()/2-1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="78">
+        <f>ROW()/2-1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="78">
+        <f>ROW()/2-1</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" s="78">
+        <f>ROW()/2-1</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="AC16" s="52"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="AC4" s="52"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="C18" s="46"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="46"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="B19" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="C19" s="46"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="46"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B20" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="C20" s="46"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="46"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="B21" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="46"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="C21" s="46"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B22" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="54"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="C22" s="46"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B23" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="54"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="54"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="C23" s="54"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B24" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="54"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="54"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="54"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="54"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="54"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="54"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="54"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="54"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="54"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="54"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>48</v>
-      </c>
       <c r="C24" s="54"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>50</v>
-      </c>
+      <c r="A25" s="49"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="54"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C26" s="54"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="54"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="54"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="57"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="54"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="54"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="54"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="54"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="B38" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="C38" s="54"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="54"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="B39" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="C39" s="54"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="54"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="B40" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="54"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="59" t="s">
+      <c r="B42" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="B43" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="54"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="54"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
@@ -1653,29 +2284,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23"/>
@@ -1683,66 +2314,66 @@
         <v>6</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -1770,7 +2401,7 @@
     </row>
     <row r="4" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -1798,7 +2429,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="21">
         <f t="shared" ref="C5:U5" si="1">SUM(C3:C4)</f>
@@ -1883,7 +2514,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1911,7 +2542,7 @@
     </row>
     <row r="7" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -1939,7 +2570,7 @@
     </row>
     <row r="8" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1967,7 +2598,7 @@
     </row>
     <row r="9" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1995,7 +2626,7 @@
     </row>
     <row r="10" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -2022,7 +2653,7 @@
     </row>
     <row r="11" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -2050,7 +2681,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -2078,7 +2709,7 @@
     </row>
     <row r="13" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -2106,7 +2737,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -2134,7 +2765,7 @@
     </row>
     <row r="15" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -2162,7 +2793,7 @@
     </row>
     <row r="16" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -2190,7 +2821,7 @@
     </row>
     <row r="17" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2218,7 +2849,7 @@
     </row>
     <row r="18" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -2246,7 +2877,7 @@
     </row>
     <row r="19" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -2274,7 +2905,7 @@
     </row>
     <row r="20" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C20" s="22">
         <f t="shared" ref="C20:U20" si="2">SUM(C6:C19)</f>
@@ -2359,7 +2990,7 @@
     </row>
     <row r="21" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C21" s="21">
         <f>C5-C20</f>
@@ -2485,34 +3116,34 @@
   <cols>
     <col min="1" max="1" width="8.7265625" style="47" customWidth="1"/>
     <col min="2" max="2" width="39.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="69" width="8.7265625" style="47" customWidth="1"/>
-    <col min="70" max="16384" width="8.7265625" style="47"/>
+    <col min="3" max="70" width="8.7265625" style="47" customWidth="1"/>
+    <col min="71" max="16384" width="8.7265625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="61"/>
@@ -2520,66 +3151,66 @@
         <v>6</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="61" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="O2" s="61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P2" s="61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="61" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="R2" s="61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" s="61" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="T2" s="61" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="U2" s="61" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="V2" s="61" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -2621,7 +3252,7 @@
     </row>
     <row r="4" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="63" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
@@ -2649,7 +3280,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="66" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="65">
         <f t="shared" ref="C5:U5" si="1">SUM(C3:C4)</f>
@@ -2734,7 +3365,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="67" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
@@ -2762,7 +3393,7 @@
     </row>
     <row r="7" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="67" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
@@ -2790,7 +3421,7 @@
     </row>
     <row r="8" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -2818,7 +3449,7 @@
     </row>
     <row r="9" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
@@ -2846,7 +3477,7 @@
     </row>
     <row r="10" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -2873,7 +3504,7 @@
     </row>
     <row r="11" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -2901,7 +3532,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -2929,7 +3560,7 @@
     </row>
     <row r="13" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
@@ -2957,7 +3588,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -2985,7 +3616,7 @@
     </row>
     <row r="15" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="63" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -3013,7 +3644,7 @@
     </row>
     <row r="16" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -3041,7 +3672,7 @@
     </row>
     <row r="17" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="71" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -3069,7 +3700,7 @@
     </row>
     <row r="18" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -3097,7 +3728,7 @@
     </row>
     <row r="19" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -3125,7 +3756,7 @@
     </row>
     <row r="20" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="72" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C20" s="72">
         <f t="shared" ref="C20:U20" si="2">SUM(C6:C19)</f>
@@ -3210,7 +3841,7 @@
     </row>
     <row r="21" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="72" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C21" s="65">
         <f>C5-C20</f>
@@ -3325,8 +3956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AI33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView zoomScale="38" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -3348,8 +3979,8 @@
     <col min="39" max="39" width="10.453125" style="44" customWidth="1"/>
     <col min="40" max="40" width="9.1796875" style="44" customWidth="1"/>
     <col min="41" max="41" width="27.26953125" style="44" customWidth="1"/>
-    <col min="42" max="110" width="9.1796875" style="44" customWidth="1"/>
-    <col min="111" max="16384" width="9.1796875" style="44"/>
+    <col min="42" max="111" width="9.1796875" style="44" customWidth="1"/>
+    <col min="112" max="16384" width="9.1796875" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
@@ -3471,260 +4102,682 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="78">
+        <f>ROW()/2-1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" s="78">
+        <f>ROW()/2-1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="78">
+        <f>ROW()/2-1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="78">
+        <f>ROW()/2-1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="78">
+        <f>ROW()/2-1</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="AC14" s="39"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="AC4" s="39"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C16" s="42"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="42"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="42"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C17" s="42"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C18" s="42"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="42"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="C20" s="42"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="A23" s="35"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="B40" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="B41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -3739,29 +4792,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23"/>
@@ -3769,66 +4822,66 @@
         <v>6</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -3856,7 +4909,7 @@
     </row>
     <row r="4" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -3884,7 +4937,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="21">
         <f t="shared" ref="C5:U5" si="1">SUM(C3:C4)</f>
@@ -3969,7 +5022,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -3997,7 +5050,7 @@
     </row>
     <row r="7" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -4025,7 +5078,7 @@
     </row>
     <row r="8" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -4053,7 +5106,7 @@
     </row>
     <row r="9" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -4081,7 +5134,7 @@
     </row>
     <row r="10" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -4108,7 +5161,7 @@
     </row>
     <row r="11" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -4136,7 +5189,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -4164,7 +5217,7 @@
     </row>
     <row r="13" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -4192,7 +5245,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -4220,7 +5273,7 @@
     </row>
     <row r="15" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -4248,7 +5301,7 @@
     </row>
     <row r="16" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -4276,7 +5329,7 @@
     </row>
     <row r="17" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -4304,7 +5357,7 @@
     </row>
     <row r="18" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -4332,7 +5385,7 @@
     </row>
     <row r="19" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -4360,7 +5413,7 @@
     </row>
     <row r="20" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C20" s="22">
         <f t="shared" ref="C20:U20" si="2">SUM(C6:C19)</f>
@@ -4445,7 +5498,7 @@
     </row>
     <row r="21" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C21" s="21">
         <f>C5-C20</f>
@@ -4560,8 +5613,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView zoomScale="38" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -4583,8 +5636,8 @@
     <col min="39" max="39" width="10.453125" style="48" customWidth="1"/>
     <col min="40" max="40" width="9.1796875" style="48" customWidth="1"/>
     <col min="41" max="41" width="27.26953125" style="48" customWidth="1"/>
-    <col min="42" max="110" width="9.1796875" style="48" customWidth="1"/>
-    <col min="111" max="16384" width="9.1796875" style="48"/>
+    <col min="42" max="111" width="9.1796875" style="48" customWidth="1"/>
+    <col min="112" max="16384" width="9.1796875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
@@ -4706,260 +5759,682 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78">
+        <f>ROW()/2-1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" s="78">
+        <f>ROW()/2-1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="78">
+        <f>ROW()/2-1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="78">
+        <f>ROW()/2-1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="78">
+        <f>ROW()/2-1</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="AC14" s="52"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="AC4" s="52"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="C16" s="46"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="46"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="B17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="C17" s="46"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="46"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B18" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="C18" s="46"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="46"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="B19" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="46"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="C19" s="46"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B20" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="54"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="C20" s="46"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B21" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="54"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="54"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="C21" s="54"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B22" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="54"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="54"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="54"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="54"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="54"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="54"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="54"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="54"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="54"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>46</v>
-      </c>
+      <c r="A23" s="49"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="54"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C24" s="54"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C25" s="54"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C26" s="54"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="54"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="54"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="54"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="54"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="54"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="54"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="B36" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="54"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="B37" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="54"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="B38" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="C38" s="54"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="57"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="54"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="54"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="59" t="s">
+      <c r="B40" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="B41" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -4970,34 +6445,34 @@
   <cols>
     <col min="1" max="1" width="8.7265625" style="47" customWidth="1"/>
     <col min="2" max="2" width="39.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="69" width="8.7265625" style="47" customWidth="1"/>
-    <col min="70" max="16384" width="8.7265625" style="47"/>
+    <col min="3" max="70" width="8.7265625" style="47" customWidth="1"/>
+    <col min="71" max="16384" width="8.7265625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="61"/>
@@ -5005,66 +6480,66 @@
         <v>6</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="61" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="O2" s="61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P2" s="61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="61" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="R2" s="61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" s="61" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="T2" s="61" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="U2" s="61" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="V2" s="61" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64">
@@ -5110,7 +6585,7 @@
     </row>
     <row r="4" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="63" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
@@ -5138,7 +6613,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="66" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="65">
         <f t="shared" ref="C5:U5" si="1">SUM(C3:C4)</f>
@@ -5223,7 +6698,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="67" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
@@ -5251,7 +6726,7 @@
     </row>
     <row r="7" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="67" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
@@ -5279,7 +6754,7 @@
     </row>
     <row r="8" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -5309,7 +6784,7 @@
     </row>
     <row r="9" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
@@ -5337,7 +6812,7 @@
     </row>
     <row r="10" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -5364,7 +6839,7 @@
     </row>
     <row r="11" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -5392,7 +6867,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -5422,7 +6897,7 @@
     </row>
     <row r="13" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
@@ -5452,7 +6927,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -5480,7 +6955,7 @@
     </row>
     <row r="15" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="63" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -5508,7 +6983,7 @@
     </row>
     <row r="16" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -5536,7 +7011,7 @@
     </row>
     <row r="17" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="71" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -5564,7 +7039,7 @@
     </row>
     <row r="18" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -5592,7 +7067,7 @@
     </row>
     <row r="19" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -5620,7 +7095,7 @@
     </row>
     <row r="20" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="72" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C20" s="72">
         <f t="shared" ref="C20:U20" si="2">SUM(C6:C19)</f>
@@ -5705,7 +7180,7 @@
     </row>
     <row r="21" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="72" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C21" s="65">
         <f>C5-C20</f>
@@ -5820,8 +7295,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AI33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -5843,8 +7318,8 @@
     <col min="39" max="39" width="10.453125" style="48" customWidth="1"/>
     <col min="40" max="40" width="9.1796875" style="48" customWidth="1"/>
     <col min="41" max="41" width="27.26953125" style="48" customWidth="1"/>
-    <col min="42" max="110" width="9.1796875" style="48" customWidth="1"/>
-    <col min="111" max="16384" width="9.1796875" style="48"/>
+    <col min="42" max="111" width="9.1796875" style="48" customWidth="1"/>
+    <col min="112" max="16384" width="9.1796875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
@@ -5966,260 +7441,766 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78">
+        <f>ROW()/2-1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" s="78">
+        <f>ROW()/2-1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="78">
+        <f>ROW()/2-1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="78">
+        <f>ROW()/2-1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="78">
+        <f>ROW()/2-1</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" s="78">
+        <f>ROW()/2-1</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="AC16" s="52"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="AC4" s="52"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="C18" s="46"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="46"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="53" t="s">
+      <c r="B19" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="C19" s="46"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="46"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B20" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="C20" s="46"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="46"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="53" t="s">
+      <c r="B21" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="46"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="C21" s="46"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B22" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="54"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="C22" s="46"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B23" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="54"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="54"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="C23" s="54"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B24" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="54"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="54"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="54"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="54"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="54"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="54"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="54"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="54"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="54"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="54"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>48</v>
-      </c>
       <c r="C24" s="54"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>50</v>
-      </c>
+      <c r="A25" s="49"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="54"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C26" s="54"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C27" s="54"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="54"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="54"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="54"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="54"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="57"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="54"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="54"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="54"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="C37" s="54"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="54"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="54"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="B38" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="C38" s="54"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="54"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="B39" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="C39" s="54"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="54"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="B40" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="C40" s="54"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="54"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="54"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="59" t="s">
+      <c r="B42" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="C42" s="54"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="B43" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="54"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="54"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -6230,34 +8211,34 @@
   <cols>
     <col min="1" max="1" width="8.7265625" style="47" customWidth="1"/>
     <col min="2" max="2" width="39.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="69" width="8.7265625" style="47" customWidth="1"/>
-    <col min="70" max="16384" width="8.7265625" style="47"/>
+    <col min="3" max="70" width="8.7265625" style="47" customWidth="1"/>
+    <col min="71" max="16384" width="8.7265625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="B1" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
     </row>
     <row r="2" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="61"/>
@@ -6265,66 +8246,66 @@
         <v>6</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="61" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" s="61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="O2" s="61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P2" s="61" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="61" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="R2" s="61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" s="61" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="T2" s="61" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="U2" s="61" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="V2" s="61" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="63" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
@@ -6368,7 +8349,7 @@
     </row>
     <row r="4" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="63" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
@@ -6396,7 +8377,7 @@
     </row>
     <row r="5" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="66" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C5" s="65">
         <f t="shared" ref="C5:U5" si="1">SUM(C3:C4)</f>
@@ -6481,7 +8462,7 @@
     </row>
     <row r="6" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="67" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
@@ -6509,7 +8490,7 @@
     </row>
     <row r="7" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="67" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
@@ -6537,7 +8518,7 @@
     </row>
     <row r="8" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="63" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -6565,7 +8546,7 @@
     </row>
     <row r="9" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="63" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
@@ -6593,7 +8574,7 @@
     </row>
     <row r="10" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -6620,7 +8601,7 @@
     </row>
     <row r="11" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -6648,7 +8629,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -6678,7 +8659,7 @@
     </row>
     <row r="13" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
@@ -6706,7 +8687,7 @@
     </row>
     <row r="14" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -6734,7 +8715,7 @@
     </row>
     <row r="15" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="63" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -6762,7 +8743,7 @@
     </row>
     <row r="16" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -6790,7 +8771,7 @@
     </row>
     <row r="17" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="71" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -6818,7 +8799,7 @@
     </row>
     <row r="18" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -6846,7 +8827,7 @@
     </row>
     <row r="19" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -6874,7 +8855,7 @@
     </row>
     <row r="20" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="72" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C20" s="72">
         <f t="shared" ref="C20:U20" si="2">SUM(C6:C19)</f>
@@ -6959,7 +8940,7 @@
     </row>
     <row r="21" spans="2:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="72" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C21" s="65">
         <f>C5-C20</f>
@@ -7074,8 +9055,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:AI33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView zoomScale="38" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
@@ -7097,8 +9078,8 @@
     <col min="39" max="39" width="10.453125" style="44" customWidth="1"/>
     <col min="40" max="40" width="9.1796875" style="44" customWidth="1"/>
     <col min="41" max="41" width="27.26953125" style="44" customWidth="1"/>
-    <col min="42" max="110" width="9.1796875" style="44" customWidth="1"/>
-    <col min="111" max="16384" width="9.1796875" style="44"/>
+    <col min="42" max="111" width="9.1796875" style="44" customWidth="1"/>
+    <col min="112" max="16384" width="9.1796875" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
@@ -7220,253 +9201,675 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="78">
+        <f>ROW()/2-1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" s="78">
+        <f>ROW()/2-1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="78">
+        <f>ROW()/2-1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="78">
+        <f>ROW()/2-1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="78">
+        <f>ROW()/2-1</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="AC14" s="39"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="AC4" s="39"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C16" s="42"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="42"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="42"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C17" s="42"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C18" s="42"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="42"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="C20" s="42"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="A23" s="35"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="B40" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="B41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
